--- a/Result/ARIMA/Manufacturing/USA.xlsx
+++ b/Result/ARIMA/Manufacturing/USA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,6 +647,16 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11.22363791652988</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -691,72 +701,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>11.51287559587805</v>
+        <v>10.86707636150091</v>
       </c>
       <c r="C2" t="n">
-        <v>10.96250732571494</v>
+        <v>10.31657061419971</v>
       </c>
       <c r="D2" t="n">
-        <v>12.06324386604117</v>
+        <v>11.41758210880211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>11.27201726081629</v>
+        <v>10.60600249158408</v>
       </c>
       <c r="C3" t="n">
-        <v>10.32606969528847</v>
+        <v>9.677012197344487</v>
       </c>
       <c r="D3" t="n">
-        <v>12.21796482634411</v>
+        <v>11.53499278582367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>11.03115892575453</v>
+        <v>10.34492862166724</v>
       </c>
       <c r="C4" t="n">
-        <v>9.81184421631578</v>
+        <v>9.152037446508723</v>
       </c>
       <c r="D4" t="n">
-        <v>12.25047363519327</v>
+        <v>11.53781979682576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>10.79030059069276</v>
+        <v>10.08385475175041</v>
       </c>
       <c r="C5" t="n">
-        <v>9.348551678926439</v>
+        <v>8.67568013731128</v>
       </c>
       <c r="D5" t="n">
-        <v>12.23204950245908</v>
+        <v>11.49202936618953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>10.549442255631</v>
+        <v>9.822780881833571</v>
       </c>
       <c r="C6" t="n">
-        <v>8.915260047765223</v>
+        <v>8.228126645414125</v>
       </c>
       <c r="D6" t="n">
-        <v>12.18362446349677</v>
+        <v>11.41743511825302</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1049,16 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10.21250954140172</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1086,13 +1106,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0907671574691</v>
+        <v>9.871877845536037</v>
       </c>
       <c r="C2" t="n">
-        <v>10.53801298846609</v>
+        <v>9.238123440371432</v>
       </c>
       <c r="D2" t="n">
-        <v>11.64352132647211</v>
+        <v>10.50563225070064</v>
       </c>
     </row>
     <row r="3">
@@ -1100,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>10.88184130725409</v>
+        <v>9.622994888406158</v>
       </c>
       <c r="C3" t="n">
-        <v>9.971455832153829</v>
+        <v>8.671881818351162</v>
       </c>
       <c r="D3" t="n">
-        <v>11.79222678235435</v>
+        <v>10.57410795846115</v>
       </c>
     </row>
     <row r="4">
@@ -1114,13 +1134,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>10.67291545703908</v>
+        <v>9.374111931276278</v>
       </c>
       <c r="C4" t="n">
-        <v>9.510131618487456</v>
+        <v>8.187694004071309</v>
       </c>
       <c r="D4" t="n">
-        <v>11.83569929559071</v>
+        <v>10.56052985848125</v>
       </c>
     </row>
     <row r="5">
@@ -1128,13 +1148,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>10.46398960682407</v>
+        <v>9.125228974146399</v>
       </c>
       <c r="C5" t="n">
-        <v>9.094562428358502</v>
+        <v>7.742999281238149</v>
       </c>
       <c r="D5" t="n">
-        <v>11.83341678528964</v>
+        <v>10.50745866705465</v>
       </c>
     </row>
     <row r="6">
@@ -1142,13 +1162,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>10.25506375660906</v>
+        <v>8.87634601701652</v>
       </c>
       <c r="C6" t="n">
-        <v>8.706323836853814</v>
+        <v>7.322791914347053</v>
       </c>
       <c r="D6" t="n">
-        <v>11.80380367636432</v>
+        <v>10.42990011968599</v>
       </c>
     </row>
   </sheetData>

--- a/Result/ARIMA/Manufacturing/USA.xlsx
+++ b/Result/ARIMA/Manufacturing/USA.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.08717737576003</v>
+        <v>-0.2610738699168351</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7743252610376</v>
+        <v>15.82610396925855</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>15.45906690508512</v>
+        <v>15.49677399888529</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>15.11507499065894</v>
+        <v>15.18464152532538</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>13.91930940251579</v>
+        <v>14.82905189465676</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>13.45287764024212</v>
+        <v>13.33143331283013</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3165117541749</v>
+        <v>13.23543880064474</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>13.17418108165371</v>
+        <v>13.08456824468752</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>12.98331951941368</v>
+        <v>12.94530615472575</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.99072266531401</v>
+        <v>12.73590430331101</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>12.76975661036177</v>
+        <v>12.82120806736439</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>12.21673020060782</v>
+        <v>12.49019561909548</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>11.69878959461227</v>
+        <v>11.85739694843217</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>11.90608509753218</v>
+        <v>11.38072621320181</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>11.94724683215558</v>
+        <v>11.83377893261917</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>11.85756063027308</v>
+        <v>11.72694333012629</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>11.79811646038965</v>
+        <v>11.64341911215989</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>11.65547548994952</v>
+        <v>11.59262719038455</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>11.66231343029535</v>
+        <v>11.41698376269012</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>11.22363791652988</v>
+        <v>11.4893894322177</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -815,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.08717737576003</v>
+        <v>-0.2488829571298799</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -825,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7743252610376</v>
+        <v>15.83829462197516</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -835,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>15.45906690508512</v>
+        <v>15.51793299211485</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -845,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>15.11507499065894</v>
+        <v>15.20317715015738</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>13.91930940251579</v>
+        <v>14.85570323437172</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>13.45287764024212</v>
+        <v>13.55894593152401</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -875,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3165117541749</v>
+        <v>13.19136693218302</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>13.17418108165371</v>
+        <v>13.08252766666925</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>12.98331951941368</v>
+        <v>12.9362097408316</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.99072266531401</v>
+        <v>12.74004512393225</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>12.76975661036177</v>
+        <v>12.77168362779146</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>12.21673020060782</v>
+        <v>12.52064423597761</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>11.69878959461227</v>
+        <v>11.93166535821961</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>11.90608509753218</v>
+        <v>11.42218207336993</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>11.94724683215558</v>
+        <v>11.71481225924756</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>11.85756063027308</v>
+        <v>11.72603591405079</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>11.79811646038965</v>
+        <v>11.62433608847502</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>11.65547548994952</v>
+        <v>11.56992258222618</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>11.66231343029535</v>
+        <v>11.41677786528379</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>11.22363791652988</v>
+        <v>11.44266222493132</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>11.25487168998816</v>
+        <v>10.9486794529308</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>11.34219756039769</v>
+        <v>11.04244184491913</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>11.07164491768661</v>
+        <v>11.12900142796406</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>11.18777772755131</v>
+        <v>10.81593349450332</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>10.21250954140172</v>
+        <v>10.98316395120389</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
